--- a/Versuch10/datasets/wasser1.xlsx
+++ b/Versuch10/datasets/wasser1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch10\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45AF157A-55A6-444B-ADD2-5DA209902A1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E14BEDD5-1B9A-4121-B9A8-49720774096D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16452" windowHeight="6036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,8 +942,8 @@
         <v>1.2058823529411764</v>
       </c>
       <c r="G2">
-        <f>SQRT((1/(B2-D2)-B2/((B2-D2)^2))^2*C2^2+(E2*B2/((B2-D2)^2)))</f>
-        <v>0.13320184259266302</v>
+        <f>SQRT((1/(B2-D2)-B2/((B2-D2)^2))^2*C2^2+(E2*B2/((B2-D2)^2))^2)</f>
+        <v>1.7990168116855904E-2</v>
       </c>
       <c r="H2">
         <f>AVERAGE(F2:F11)</f>
@@ -973,8 +973,8 @@
         <v>1.2571428571428571</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">SQRT((1/(B3-D3)-B3/((B3-D3)^2))^2*C3^2+(E3*B3/((B3-D3)^2)))</f>
-        <v>0.13406221708897761</v>
+        <f t="shared" ref="G3:G11" si="1">SQRT((1/(B3-D3)-B3/((B3-D3)^2))^2*C3^2+(E3*B3/((B3-D3)^2))^2)</f>
+        <v>1.8331029855416833E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0.13178425097830082</v>
+        <v>1.7756850513604438E-2</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1031,11 +1031,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.12114975321420841</v>
+        <v>1.4995729235559082E-2</v>
       </c>
       <c r="H5">
         <f xml:space="preserve"> AVERAGE(G2:G11)</f>
-        <v>0.12815223974714188</v>
+        <v>1.7022226391168883E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.11338456159767096</v>
+        <v>1.3102310089450092E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.10705200713393914</v>
+        <v>1.1695870571691191E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.11684517096073954</v>
+        <v>1.3938255463191411E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.11210064049772418</v>
+        <v>1.2818237008262876E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.15499960227146067</v>
+        <v>2.448540572623728E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.15694235113573449</v>
+        <v>2.5108407331419755E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
